--- a/tutorial/data_ap_major_volatile.xlsx
+++ b/tutorial/data_ap_major_volatile.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexweiranli/Documents/0python/pyAp-main/example/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8DCCB5-DA6F-4749-BD02-C6B6D2E44B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="840" yWindow="500" windowWidth="25260" windowHeight="16520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>sample</t>
   </si>
@@ -73,9 +92,6 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>OXYGEN NUMBER</t>
-  </si>
-  <si>
     <t>Ap1</t>
   </si>
   <si>
@@ -83,13 +99,25 @@
   </si>
   <si>
     <t>Ap3</t>
+  </si>
+  <si>
+    <t>Ap1c</t>
+  </si>
+  <si>
+    <t>Ap2c</t>
+  </si>
+  <si>
+    <t>Ap3c</t>
+  </si>
+  <si>
+    <t>Ap4c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,8 +126,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -141,10 +176,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -152,6 +196,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -198,7 +250,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -230,9 +282,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,6 +334,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -439,14 +527,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="8.83203125" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,186 +597,439 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="B2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>54</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="M2" s="2">
+        <v>40</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="P2" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="S2" s="2">
+        <v>98.810000000000016</v>
+      </c>
     </row>
-    <row r="2" spans="1:20">
-      <c r="A2" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2">
-        <v>0.1</v>
-      </c>
-      <c r="C2">
-        <v>0.1</v>
-      </c>
-      <c r="D2">
-        <v>0.1</v>
-      </c>
-      <c r="E2">
-        <v>0.1</v>
-      </c>
-      <c r="F2">
+      <c r="B3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="2">
         <v>54</v>
       </c>
-      <c r="G2">
-        <v>0.1</v>
-      </c>
-      <c r="H2">
-        <v>0.1</v>
-      </c>
-      <c r="I2">
-        <v>0.1</v>
-      </c>
-      <c r="J2">
-        <v>0.1</v>
-      </c>
-      <c r="K2">
+      <c r="G3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K3" s="2">
         <v>0.2</v>
       </c>
-      <c r="L2">
-        <v>0.1</v>
-      </c>
-      <c r="M2">
+      <c r="L3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="M3" s="2">
         <v>40</v>
       </c>
-      <c r="N2">
+      <c r="N3" s="2">
         <v>0.2</v>
       </c>
-      <c r="O2">
+      <c r="O3" s="2">
         <v>0.01</v>
       </c>
-      <c r="P2">
+      <c r="P3" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="S3" s="2">
+        <v>98.210000000000022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>54</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="M4" s="2">
+        <v>40</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="P4" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="S4" s="2">
+        <v>98.910000000000011</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED85638-A4C6-3046-ACEA-35A140AE6303}">
+  <dimension ref="A1:S5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q2">
-        <v>0.5</v>
-      </c>
-      <c r="S2">
-        <v>98.81000000000002</v>
-      </c>
-      <c r="T2">
-        <v>25.89795036358714</v>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3">
-        <v>0.1</v>
-      </c>
-      <c r="C3">
-        <v>0.1</v>
-      </c>
-      <c r="D3">
-        <v>0.1</v>
-      </c>
-      <c r="E3">
-        <v>0.1</v>
-      </c>
-      <c r="F3">
-        <v>54</v>
-      </c>
-      <c r="G3">
-        <v>0.1</v>
-      </c>
-      <c r="H3">
-        <v>0.1</v>
-      </c>
-      <c r="I3">
-        <v>0.1</v>
-      </c>
-      <c r="J3">
-        <v>0.1</v>
-      </c>
-      <c r="K3">
+    <row r="2" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="F2" s="2">
+        <v>54.12</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="2">
         <v>0.2</v>
       </c>
-      <c r="L3">
-        <v>0.1</v>
-      </c>
-      <c r="M3">
-        <v>40</v>
-      </c>
-      <c r="N3">
+      <c r="I2" s="2"/>
+      <c r="J2" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="M2" s="2">
+        <v>41.28</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2">
+        <v>1.46</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1.17</v>
+      </c>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+    </row>
+    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="F3" s="2">
+        <v>53.68</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="H3" s="2">
         <v>0.2</v>
       </c>
-      <c r="O3">
-        <v>0.01</v>
-      </c>
-      <c r="P3">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="M3" s="2">
+        <v>41.16</v>
+      </c>
+      <c r="N3" s="2">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2">
         <v>2.5</v>
       </c>
-      <c r="Q3">
-        <v>0.4</v>
-      </c>
-      <c r="S3">
-        <v>98.21000000000002</v>
-      </c>
-      <c r="T3">
-        <v>25.74806911091732</v>
-      </c>
+      <c r="Q3" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4">
-        <v>0.1</v>
-      </c>
-      <c r="C4">
-        <v>0.1</v>
-      </c>
-      <c r="D4">
-        <v>0.1</v>
-      </c>
-      <c r="E4">
-        <v>0.1</v>
-      </c>
-      <c r="F4">
-        <v>54</v>
-      </c>
-      <c r="G4">
-        <v>0.1</v>
-      </c>
-      <c r="H4">
-        <v>0.1</v>
-      </c>
-      <c r="I4">
-        <v>0.1</v>
-      </c>
-      <c r="J4">
-        <v>0.1</v>
-      </c>
-      <c r="K4">
+    <row r="4" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.19719500000000001</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="F4" s="2">
+        <v>53.8</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.345082</v>
+      </c>
+      <c r="H4" s="2">
         <v>0.2</v>
       </c>
-      <c r="L4">
-        <v>0.1</v>
-      </c>
-      <c r="M4">
-        <v>40</v>
-      </c>
-      <c r="N4">
+      <c r="I4" s="2"/>
+      <c r="J4" s="2">
+        <v>7.8275999999999998E-2</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.187502</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="M4" s="2">
+        <v>40.963700000000003</v>
+      </c>
+      <c r="N4" s="2">
+        <v>7.5556999999999999E-2</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2">
+        <v>2.50149</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.85453400000000002</v>
+      </c>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.26232299999999997</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="F5" s="2">
+        <v>53.506700000000002</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.34916999999999998</v>
+      </c>
+      <c r="H5" s="2">
         <v>0.2</v>
       </c>
-      <c r="O4">
-        <v>0.01</v>
-      </c>
-      <c r="P4">
-        <v>2.8</v>
-      </c>
-      <c r="Q4">
-        <v>0.8</v>
-      </c>
-      <c r="S4">
-        <v>98.91000000000001</v>
-      </c>
-      <c r="T4">
-        <v>25.8873555573784</v>
-      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2">
+        <v>7.3810000000000001E-2</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.241928</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="M5" s="2">
+        <v>41.081899999999997</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.112334</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2">
+        <v>2.0448900000000001</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.95819200000000004</v>
+      </c>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tutorial/data_ap_major_volatile.xlsx
+++ b/tutorial/data_ap_major_volatile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexweiranli/Documents/0python/pyAp-main/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/easonzz/Documents/GitHub/pyAp/tutorial/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8DCCB5-DA6F-4749-BD02-C6B6D2E44B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7D0A05-E0F9-9C46-8E04-CC8DFD992769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="500" windowWidth="25260" windowHeight="16520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1720" yWindow="560" windowWidth="25260" windowHeight="16520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -776,7 +776,7 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
